--- a/NEW HR/LUNA, LALAINE DELA PEÑA.xlsx
+++ b/NEW HR/LUNA, LALAINE DELA PEÑA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="67">
   <si>
     <t>PERIOD</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>12/23,26-29/2022</t>
+  </si>
+  <si>
+    <t>2/8,9/2023</t>
   </si>
 </sst>
 </file>
@@ -617,26 +620,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1526,10 +1529,10 @@
   </sheetPr>
   <dimension ref="A2:K87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A54" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76:C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,14 +1562,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="12"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="30" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="27"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -1578,14 +1581,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="28" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="28"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
@@ -1599,16 +1602,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="28" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="28"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -1641,18 +1644,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1699,7 +1702,7 @@
       <c r="D9" s="13"/>
       <c r="E9" s="15">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>82.082999999999998</v>
+        <v>84.582999999999998</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="15" t="str">
@@ -1709,7 +1712,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="15">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>94.082999999999998</v>
+        <v>96.582999999999998</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="22"/>
@@ -3074,15 +3077,19 @@
       <c r="K76" s="22"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="25"/>
+      <c r="A77" s="25">
+        <v>44958</v>
+      </c>
       <c r="B77" s="14"/>
-      <c r="C77" s="15"/>
+      <c r="C77" s="15">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="14"/>
       <c r="E77" s="11"/>
       <c r="F77" s="14"/>
-      <c r="G77" s="15" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="15">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="13"/>
       <c r="I77" s="10"/>
@@ -3090,15 +3097,19 @@
       <c r="K77" s="22"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="25"/>
+      <c r="A78" s="25">
+        <v>44986</v>
+      </c>
       <c r="B78" s="14"/>
-      <c r="C78" s="15"/>
+      <c r="C78" s="15">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="14"/>
       <c r="E78" s="11"/>
       <c r="F78" s="14"/>
-      <c r="G78" s="15" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="15">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="13"/>
       <c r="I78" s="10"/>
@@ -3251,17 +3262,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3296,10 +3307,10 @@
   </sheetPr>
   <dimension ref="A2:K41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A14" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3329,14 +3340,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="12"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="30" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="27"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -3348,14 +3359,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="28" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="28"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
@@ -3369,16 +3380,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="28" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="28"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -3411,18 +3422,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3479,7 +3490,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="15">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>4.8329999999999984</v>
+        <v>1.8329999999999984</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="22"/>
@@ -3881,8 +3892,12 @@
       <c r="K27" s="22"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="14"/>
+      <c r="A28" s="25">
+        <v>44958</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="C28" s="15"/>
       <c r="D28" s="14"/>
       <c r="E28" s="11"/>
@@ -3891,14 +3906,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H28" s="13"/>
+      <c r="H28" s="13">
+        <v>2</v>
+      </c>
       <c r="I28" s="10"/>
       <c r="J28" s="13"/>
-      <c r="K28" s="22"/>
+      <c r="K28" s="22" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
-      <c r="B29" s="14"/>
+      <c r="B29" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="C29" s="15"/>
       <c r="D29" s="14"/>
       <c r="E29" s="11"/>
@@ -3907,10 +3928,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H29" s="13"/>
+      <c r="H29" s="13">
+        <v>1</v>
+      </c>
       <c r="I29" s="10"/>
       <c r="J29" s="13"/>
-      <c r="K29" s="22"/>
+      <c r="K29" s="41">
+        <v>44974</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
